--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3374.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3374.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.240373549370054</v>
+        <v>4.2946457862854</v>
       </c>
       <c r="B1">
-        <v>2.593087488846373</v>
+        <v>2.427496194839478</v>
       </c>
       <c r="C1">
-        <v>4.333893377283967</v>
+        <v>1.772054195404053</v>
       </c>
       <c r="D1">
-        <v>3.314162581081233</v>
+        <v>1.641387581825256</v>
       </c>
       <c r="E1">
-        <v>1.162741957595268</v>
+        <v>1.555007576942444</v>
       </c>
     </row>
   </sheetData>
